--- a/Code/Results/Cases/Case_2_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.162360012769199</v>
+        <v>0.4696084445338329</v>
       </c>
       <c r="C2">
-        <v>0.1077258611058056</v>
+        <v>0.1727505511875194</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07043054667536808</v>
+        <v>0.113611068416791</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1991998882741122</v>
+        <v>0.4738395392023698</v>
       </c>
       <c r="H2">
-        <v>0.2298490533642372</v>
+        <v>0.642644101790161</v>
       </c>
       <c r="I2">
-        <v>0.2400790344918331</v>
+        <v>0.6392682196701021</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.982871216115683</v>
+        <v>0.3095076288651057</v>
       </c>
       <c r="L2">
-        <v>0.2551581142436703</v>
+        <v>0.1939107927522343</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8513335420632018</v>
+        <v>2.19233016802594</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.012037529989101</v>
+        <v>0.4226914432631474</v>
       </c>
       <c r="C3">
-        <v>0.1075101306187207</v>
+        <v>0.1730467968707003</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06602124043203261</v>
+        <v>0.1132844283242171</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.2065860698704007</v>
+        <v>0.4808712838512683</v>
       </c>
       <c r="H3">
-        <v>0.2389964752832689</v>
+        <v>0.6494570183898709</v>
       </c>
       <c r="I3">
-        <v>0.2531924813141178</v>
+        <v>0.6481425099264619</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8623395971449668</v>
+        <v>0.2701769831902538</v>
       </c>
       <c r="L3">
-        <v>0.225090945712239</v>
+        <v>0.1863756650207904</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.885824793909336</v>
+        <v>2.221288052062476</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9196992302431397</v>
+        <v>0.3938636975041732</v>
       </c>
       <c r="C4">
-        <v>0.1074377273176168</v>
+        <v>0.1732658888122032</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06341763639516529</v>
+        <v>0.1131468847916715</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.2118173058506017</v>
+        <v>0.4855348430984634</v>
       </c>
       <c r="H4">
-        <v>0.2450575578522169</v>
+        <v>0.6539160963363457</v>
       </c>
       <c r="I4">
-        <v>0.2618769876733893</v>
+        <v>0.6539444975516346</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7882128598338767</v>
+        <v>0.2459323087983876</v>
       </c>
       <c r="L4">
-        <v>0.2068079282560547</v>
+        <v>0.1818436040563682</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9094015147837524</v>
+        <v>2.24037239555706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8820528722136487</v>
+        <v>0.3821119031680382</v>
       </c>
       <c r="C5">
-        <v>0.1074231887508361</v>
+        <v>0.1733645643709991</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06238160601128229</v>
+        <v>0.1131067073818031</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2141174041047407</v>
+        <v>0.4875222204166718</v>
       </c>
       <c r="H5">
-        <v>0.2476363791209728</v>
+        <v>0.6558026246420887</v>
       </c>
       <c r="I5">
-        <v>0.2655704470003588</v>
+        <v>0.6563976428044676</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7579699724431208</v>
+        <v>0.2360291180359297</v>
       </c>
       <c r="L5">
-        <v>0.1993985426188232</v>
+        <v>0.1800206462387735</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9195921469141197</v>
+        <v>2.248477253444761</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8758004331602933</v>
+        <v>0.3801602964326491</v>
       </c>
       <c r="C6">
-        <v>0.1074216747786778</v>
+        <v>0.1733815179314391</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06221104942251898</v>
+        <v>0.113100995420865</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2145093089710564</v>
+        <v>0.4878574715926938</v>
       </c>
       <c r="H6">
-        <v>0.2480710839572566</v>
+        <v>0.6561200749448233</v>
       </c>
       <c r="I6">
-        <v>0.2661929384562356</v>
+        <v>0.6568103479660721</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7529458576628798</v>
+        <v>0.2343833155256618</v>
       </c>
       <c r="L6">
-        <v>0.1981705951301223</v>
+        <v>0.1797193921832161</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9213189222231719</v>
+        <v>2.249842856580493</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9191916000928018</v>
+        <v>0.393705224718417</v>
       </c>
       <c r="C7">
-        <v>0.1074374708193062</v>
+        <v>0.1732671814957527</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06340356452028928</v>
+        <v>0.1131462786410324</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2118476529042432</v>
+        <v>0.4855612936506901</v>
       </c>
       <c r="H7">
-        <v>0.2450918996287967</v>
+        <v>0.6539412575990475</v>
       </c>
       <c r="I7">
-        <v>0.2619261796245276</v>
+        <v>0.6539772220407407</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7878051449962982</v>
+        <v>0.2457988442390047</v>
       </c>
       <c r="L7">
-        <v>0.2067078411477752</v>
+        <v>0.1818189221032185</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9095366152116426</v>
+        <v>2.240480373240317</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.110532187970705</v>
+        <v>0.4534362488367663</v>
       </c>
       <c r="C8">
-        <v>0.1076389281884005</v>
+        <v>0.1728450008420737</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06888799772223919</v>
+        <v>0.1134853800624533</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.2015980506287391</v>
+        <v>0.4761922194850783</v>
       </c>
       <c r="H8">
-        <v>0.2329090433217225</v>
+        <v>0.6449359502162082</v>
       </c>
       <c r="I8">
-        <v>0.2444663511492529</v>
+        <v>0.642254775425469</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9413333225770373</v>
+        <v>0.2959666654931823</v>
       </c>
       <c r="L8">
-        <v>0.2447516185116427</v>
+        <v>0.1912931295607763</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8627157569933104</v>
+        <v>2.202044131635205</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.485827981115449</v>
+        <v>0.5703717153257912</v>
       </c>
       <c r="C9">
-        <v>0.1085171881733729</v>
+        <v>0.1723105118881065</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0805193945165783</v>
+        <v>0.1146493396939086</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1873367976605849</v>
+        <v>0.4605684474345182</v>
       </c>
       <c r="H9">
-        <v>0.2126814294404085</v>
+        <v>0.629464133798507</v>
       </c>
       <c r="I9">
-        <v>0.2154668301294418</v>
+        <v>0.6220693341356132</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.241731913463866</v>
+        <v>0.3935606243476286</v>
       </c>
       <c r="L9">
-        <v>0.3209515882838048</v>
+        <v>0.2106179166482605</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7908875638029542</v>
+        <v>2.137021659034502</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.762212378424721</v>
+        <v>0.6561267087531917</v>
       </c>
       <c r="C10">
-        <v>0.1094671607679345</v>
+        <v>0.1720944533493451</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08967759441911483</v>
+        <v>0.1158076001301076</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1808751188045719</v>
+        <v>0.4507698776025109</v>
       </c>
       <c r="H10">
-        <v>0.2002497982428437</v>
+        <v>0.6194280066551343</v>
       </c>
       <c r="I10">
-        <v>0.197669816054816</v>
+        <v>0.6089474072493193</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.462465758425111</v>
+        <v>0.4647545103129005</v>
       </c>
       <c r="L10">
-        <v>0.3781783266819474</v>
+        <v>0.2252665297110497</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.751681410170022</v>
+        <v>2.0955640023585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.888234906257793</v>
+        <v>0.6950972629402656</v>
       </c>
       <c r="C11">
-        <v>0.1099679214068416</v>
+        <v>0.1720340518237933</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.09399517969906412</v>
+        <v>0.1164001207789731</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1789142350779542</v>
+        <v>0.4466780286532313</v>
       </c>
       <c r="H11">
-        <v>0.1951678078883177</v>
+        <v>0.6151507795609703</v>
       </c>
       <c r="I11">
-        <v>0.1904087412786204</v>
+        <v>0.6033488374621072</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.562996231954827</v>
+        <v>0.4970261652282488</v>
       </c>
       <c r="L11">
-        <v>0.4045455026903113</v>
+        <v>0.232027666177288</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7371136867877937</v>
+        <v>2.078075828339934</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.936011079005425</v>
+        <v>0.709847864384642</v>
       </c>
       <c r="C12">
-        <v>0.1101676253981481</v>
+        <v>0.1720165880161204</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.09565350740533063</v>
+        <v>0.1166339055421837</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1783218712449113</v>
+        <v>0.4451812030651467</v>
       </c>
       <c r="H12">
-        <v>0.1933299104058079</v>
+        <v>0.6135725216414158</v>
       </c>
       <c r="I12">
-        <v>0.1877857282320452</v>
+        <v>0.601282118639805</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.601090463520848</v>
+        <v>0.5092294488666482</v>
       </c>
       <c r="L12">
-        <v>0.4145836568706613</v>
+        <v>0.2346018378991346</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7320957384544755</v>
+        <v>2.071650785590407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.925719016987301</v>
+        <v>0.7066713719980271</v>
       </c>
       <c r="C13">
-        <v>0.1101241639095605</v>
+        <v>0.1720201092108837</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.09529529233685352</v>
+        <v>0.1165831377173987</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1784426114848827</v>
+        <v>0.445501227189304</v>
       </c>
       <c r="H13">
-        <v>0.193721817446928</v>
+        <v>0.6139105851347324</v>
       </c>
       <c r="I13">
-        <v>0.1883449023597272</v>
+        <v>0.6017248506972823</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.592884909858697</v>
+        <v>0.506602034888175</v>
       </c>
       <c r="L13">
-        <v>0.4124192930919151</v>
+        <v>0.2340468289138187</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7331537962381987</v>
+        <v>2.073025753439651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.892164323673057</v>
+        <v>0.6963109436856882</v>
       </c>
       <c r="C14">
-        <v>0.1099841479675661</v>
+        <v>0.1720325068844843</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09413113400392703</v>
+        <v>0.1164191659521414</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1788624349393189</v>
+        <v>0.4465538277781249</v>
       </c>
       <c r="H14">
-        <v>0.1950148441032127</v>
+        <v>0.6150201050002622</v>
       </c>
       <c r="I14">
-        <v>0.1901903683934965</v>
+        <v>0.6031777380725192</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.566129704123483</v>
+        <v>0.4980304877467461</v>
       </c>
       <c r="L14">
-        <v>0.4053702439031355</v>
+        <v>0.2322391674904765</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7366906955128911</v>
+        <v>2.077543279987651</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.871618528705994</v>
+        <v>0.6899639805436948</v>
       </c>
       <c r="C15">
-        <v>0.1098997029282671</v>
+        <v>0.1720408040751238</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.09342114261192336</v>
+        <v>0.1163199531932122</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1791394370983355</v>
+        <v>0.4472054380287105</v>
       </c>
       <c r="H15">
-        <v>0.1958182567860547</v>
+        <v>0.6157051135654399</v>
       </c>
       <c r="I15">
-        <v>0.1913374569982835</v>
+        <v>0.6040746208402314</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.549744958724716</v>
+        <v>0.4927778925304267</v>
       </c>
       <c r="L15">
-        <v>0.4010596274225549</v>
+        <v>0.2311337258453392</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.738922952143767</v>
+        <v>2.080336101555147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.753983422978678</v>
+        <v>0.653579006627524</v>
       </c>
       <c r="C16">
-        <v>0.1094358332303145</v>
+        <v>0.1720991597388348</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08939861034604135</v>
+        <v>0.1157701957512636</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1810237550172076</v>
+        <v>0.4510446543457363</v>
       </c>
       <c r="H16">
-        <v>0.2005937991445066</v>
+        <v>0.6197133326168327</v>
       </c>
       <c r="I16">
-        <v>0.1981616953243446</v>
+        <v>0.6093207488005614</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.455898943220404</v>
+        <v>0.4626431046441439</v>
       </c>
       <c r="L16">
-        <v>0.3764623524292574</v>
+        <v>0.2248266224550264</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7527016075988371</v>
+        <v>2.09673450185953</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.68190158056143</v>
+        <v>0.6312471093685303</v>
       </c>
       <c r="C17">
-        <v>0.1091689831488054</v>
+        <v>0.1721446344801265</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08697080314401973</v>
+        <v>0.1154497261017369</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1824369207785068</v>
+        <v>0.4534935920048397</v>
       </c>
       <c r="H17">
-        <v>0.2036731076695304</v>
+        <v>0.622246063447264</v>
       </c>
       <c r="I17">
-        <v>0.2025665185651775</v>
+        <v>0.6126340401910113</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.398363491812006</v>
+        <v>0.4441264267430256</v>
       </c>
       <c r="L17">
-        <v>0.3614621091354593</v>
+        <v>0.2209822743866283</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.762011111112713</v>
+        <v>2.107145697555737</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.640468909591533</v>
+        <v>0.6183987025596878</v>
       </c>
       <c r="C18">
-        <v>0.1090219428701076</v>
+        <v>0.1721743585268172</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08558855107914454</v>
+        <v>0.1152715786915124</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1833412456602161</v>
+        <v>0.4549365593706298</v>
       </c>
       <c r="H18">
-        <v>0.2054979387424041</v>
+        <v>0.6237299563308056</v>
       </c>
       <c r="I18">
-        <v>0.2051782260415553</v>
+        <v>0.6145746438616353</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.365281131749811</v>
+        <v>0.4334653644099546</v>
       </c>
       <c r="L18">
-        <v>0.3528655042302518</v>
+        <v>0.2187802835227757</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7676714168634646</v>
+        <v>2.113262987557079</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.626444789481184</v>
+        <v>0.6140478487541543</v>
       </c>
       <c r="C19">
-        <v>0.1089732582728686</v>
+        <v>0.1721850366035724</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08512292957510681</v>
+        <v>0.1152123229600086</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1836628717954625</v>
+        <v>0.4554310290386496</v>
       </c>
       <c r="H19">
-        <v>0.2061248957500865</v>
+        <v>0.6242370375891113</v>
       </c>
       <c r="I19">
-        <v>0.2060757375372546</v>
+        <v>0.615237689495391</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.354081565788647</v>
+        <v>0.4298538879450007</v>
       </c>
       <c r="L19">
-        <v>0.3499600307936674</v>
+        <v>0.2180363073074716</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7696395603518482</v>
+        <v>2.115356354935116</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.689571948220959</v>
+        <v>0.6336247669457578</v>
       </c>
       <c r="C20">
-        <v>0.1091967212994263</v>
+        <v>0.1721394246053407</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08722777092624057</v>
+        <v>0.115483201407045</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1822769491854856</v>
+        <v>0.4532293370794136</v>
       </c>
       <c r="H20">
-        <v>0.2033397238313341</v>
+        <v>0.621973641868621</v>
       </c>
       <c r="I20">
-        <v>0.2020894811075031</v>
+        <v>0.6122777238141222</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.404487090680618</v>
+        <v>0.4460986779105838</v>
       </c>
       <c r="L20">
-        <v>0.3630556499843607</v>
+        <v>0.2213905630208046</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.76098825457332</v>
+        <v>2.10602405093104</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.902018580938574</v>
+        <v>0.6993542422610801</v>
       </c>
       <c r="C21">
-        <v>0.1100249988197035</v>
+        <v>0.1720287188980834</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09447242881211437</v>
+        <v>0.1164670732590807</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1787349686021713</v>
+        <v>0.4462432232579232</v>
       </c>
       <c r="H21">
-        <v>0.1946326681232051</v>
+        <v>0.614693087708801</v>
       </c>
       <c r="I21">
-        <v>0.1896448204487271</v>
+        <v>0.6027495419544735</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.573987592017261</v>
+        <v>0.5005486344408325</v>
       </c>
       <c r="L21">
-        <v>0.4074392246239142</v>
+        <v>0.232769745924486</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7356380554511333</v>
+        <v>2.076211015477469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.041186667726038</v>
+        <v>0.7422727410747711</v>
       </c>
       <c r="C22">
-        <v>0.1106251686850328</v>
+        <v>0.171987875953441</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09934413702637457</v>
+        <v>0.1171649270205286</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1773002402583188</v>
+        <v>0.4419844340964403</v>
       </c>
       <c r="H22">
-        <v>0.1894486223711027</v>
+        <v>0.6101763332122161</v>
       </c>
       <c r="I22">
-        <v>0.18225273485616</v>
+        <v>0.5968332365663969</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.684919203529944</v>
+        <v>0.5360336778390717</v>
       </c>
       <c r="L22">
-        <v>0.436760900125563</v>
+        <v>0.2402875188850686</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7219906032155734</v>
+        <v>2.057876859764264</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.966876422293325</v>
+        <v>0.7193702674868518</v>
       </c>
       <c r="C23">
-        <v>0.1102993896212752</v>
+        <v>0.1720068042127281</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09673094576825036</v>
+        <v>0.1167874605303965</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1779821743283563</v>
+        <v>0.4442293028961046</v>
       </c>
       <c r="H23">
-        <v>0.1921676756627946</v>
+        <v>0.6125649172593839</v>
       </c>
       <c r="I23">
-        <v>0.1861279484182372</v>
+        <v>0.5999624192551938</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.625695876083086</v>
+        <v>0.5171041558074876</v>
       </c>
       <c r="L23">
-        <v>0.4210807323038779</v>
+        <v>0.2362677905081938</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7289973685634266</v>
+        <v>2.067556823005006</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.686104150537176</v>
+        <v>0.6325498574775565</v>
       </c>
       <c r="C24">
-        <v>0.10918416103938</v>
+        <v>0.1721417688347415</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08711155377717006</v>
+        <v>0.1154680482349804</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1823489868756099</v>
+        <v>0.4533486975910108</v>
       </c>
       <c r="H24">
-        <v>0.2034902772313458</v>
+        <v>0.6220967170923259</v>
       </c>
       <c r="I24">
-        <v>0.202304903181469</v>
+        <v>0.6124387030982934</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.401718626176176</v>
+        <v>0.4452070716206151</v>
       </c>
       <c r="L24">
-        <v>0.3623351257394631</v>
+        <v>0.2212059502524255</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.761449730352723</v>
+        <v>2.106530736979352</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.384231953927326</v>
+        <v>0.5387625360448851</v>
       </c>
       <c r="C25">
-        <v>0.1082268595205775</v>
+        <v>0.1724239267075944</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07727111766914518</v>
+        <v>0.1142811506957671</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.190524107656131</v>
+        <v>0.464500342150636</v>
       </c>
       <c r="H25">
-        <v>0.217741735807941</v>
+        <v>0.6334157440966806</v>
       </c>
       <c r="I25">
-        <v>0.2227195390349497</v>
+        <v>0.6272300319281197</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.160494326301858</v>
+        <v>0.3672460074113815</v>
       </c>
       <c r="L25">
-        <v>0.3001396634124944</v>
+        <v>0.2053106109695051</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.808041038751881</v>
+        <v>2.153503392370155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_189/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_189/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4696084445338329</v>
+        <v>1.162360012769199</v>
       </c>
       <c r="C2">
-        <v>0.1727505511875194</v>
+        <v>0.1077258611060827</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.113611068416791</v>
+        <v>0.07043054667537874</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.4738395392023698</v>
+        <v>0.1991998882742436</v>
       </c>
       <c r="H2">
-        <v>0.642644101790161</v>
+        <v>0.229849053364358</v>
       </c>
       <c r="I2">
-        <v>0.6392682196701021</v>
+        <v>0.2400790344918509</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3095076288651057</v>
+        <v>0.9828712161156261</v>
       </c>
       <c r="L2">
-        <v>0.1939107927522343</v>
+        <v>0.2551581142436135</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.19233016802594</v>
+        <v>0.8513335420632302</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4226914432631474</v>
+        <v>1.012037529989044</v>
       </c>
       <c r="C3">
-        <v>0.1730467968707003</v>
+        <v>0.1075101306187207</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1132844283242171</v>
+        <v>0.06602124043208946</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.4808712838512683</v>
+        <v>0.2065860698704078</v>
       </c>
       <c r="H3">
-        <v>0.6494570183898709</v>
+        <v>0.2389964752833791</v>
       </c>
       <c r="I3">
-        <v>0.6481425099264619</v>
+        <v>0.2531924813141213</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2701769831902538</v>
+        <v>0.8623395971449668</v>
       </c>
       <c r="L3">
-        <v>0.1863756650207904</v>
+        <v>0.2250909457121537</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.221288052062476</v>
+        <v>0.8858247939093431</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3938636975041732</v>
+        <v>0.9196992302432818</v>
       </c>
       <c r="C4">
-        <v>0.1732658888122032</v>
+        <v>0.1074377273176097</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1131468847916715</v>
+        <v>0.06341763639513331</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.4855348430984634</v>
+        <v>0.2118173058505555</v>
       </c>
       <c r="H4">
-        <v>0.6539160963363457</v>
+        <v>0.2450575578523306</v>
       </c>
       <c r="I4">
-        <v>0.6539444975516346</v>
+        <v>0.2618769876733715</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2459323087983876</v>
+        <v>0.7882128598339904</v>
       </c>
       <c r="L4">
-        <v>0.1818436040563682</v>
+        <v>0.206807928256012</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.24037239555706</v>
+        <v>0.9094015147838093</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3821119031680382</v>
+        <v>0.8820528722136203</v>
       </c>
       <c r="C5">
-        <v>0.1733645643709991</v>
+        <v>0.1074231887511061</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1131067073818031</v>
+        <v>0.06238160601127873</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.4875222204166718</v>
+        <v>0.2141174041046767</v>
       </c>
       <c r="H5">
-        <v>0.6558026246420887</v>
+        <v>0.2476363791208627</v>
       </c>
       <c r="I5">
-        <v>0.6563976428044676</v>
+        <v>0.2655704470003535</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2360291180359297</v>
+        <v>0.757969972443135</v>
       </c>
       <c r="L5">
-        <v>0.1800206462387735</v>
+        <v>0.199398542618809</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.248477253444761</v>
+        <v>0.9195921469140913</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3801602964326491</v>
+        <v>0.875800433160407</v>
       </c>
       <c r="C6">
-        <v>0.1733815179314391</v>
+        <v>0.1074216747786494</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.113100995420865</v>
+        <v>0.0622110494225474</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.4878574715926938</v>
+        <v>0.2145093089711096</v>
       </c>
       <c r="H6">
-        <v>0.6561200749448233</v>
+        <v>0.2480710839572602</v>
       </c>
       <c r="I6">
-        <v>0.6568103479660721</v>
+        <v>0.2661929384562498</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2343833155256618</v>
+        <v>0.7529458576629366</v>
       </c>
       <c r="L6">
-        <v>0.1797193921832161</v>
+        <v>0.1981705951302359</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.249842856580493</v>
+        <v>0.9213189222232216</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.393705224718417</v>
+        <v>0.9191916000927165</v>
       </c>
       <c r="C7">
-        <v>0.1732671814957527</v>
+        <v>0.1074374708191144</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1131462786410324</v>
+        <v>0.06340356452028928</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.4855612936506901</v>
+        <v>0.2118476529042965</v>
       </c>
       <c r="H7">
-        <v>0.6539412575990475</v>
+        <v>0.2450918996287932</v>
       </c>
       <c r="I7">
-        <v>0.6539772220407407</v>
+        <v>0.2619261796245258</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2457988442390047</v>
+        <v>0.7878051449962982</v>
       </c>
       <c r="L7">
-        <v>0.1818189221032185</v>
+        <v>0.2067078411478036</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.240480373240317</v>
+        <v>0.9095366152116142</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4534362488367663</v>
+        <v>1.110532187970705</v>
       </c>
       <c r="C8">
-        <v>0.1728450008420737</v>
+        <v>0.1076389281881731</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1134853800624533</v>
+        <v>0.06888799772223209</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.4761922194850783</v>
+        <v>0.201598050628796</v>
       </c>
       <c r="H8">
-        <v>0.6449359502162082</v>
+        <v>0.2329090433217225</v>
       </c>
       <c r="I8">
-        <v>0.642254775425469</v>
+        <v>0.2444663511492582</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2959666654931823</v>
+        <v>0.9413333225770657</v>
       </c>
       <c r="L8">
-        <v>0.1912931295607763</v>
+        <v>0.244751618511529</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.202044131635205</v>
+        <v>0.8627157569933317</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5703717153257912</v>
+        <v>1.485827981115449</v>
       </c>
       <c r="C9">
-        <v>0.1723105118881065</v>
+        <v>0.1085171881738418</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1146493396939086</v>
+        <v>0.08051939451656409</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.4605684474345182</v>
+        <v>0.1873367976605778</v>
       </c>
       <c r="H9">
-        <v>0.629464133798507</v>
+        <v>0.2126814294404085</v>
       </c>
       <c r="I9">
-        <v>0.6220693341356132</v>
+        <v>0.2154668301294542</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3935606243476286</v>
+        <v>1.241731913463838</v>
       </c>
       <c r="L9">
-        <v>0.2106179166482605</v>
+        <v>0.3209515882837195</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.137021659034502</v>
+        <v>0.7908875638029542</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6561267087531917</v>
+        <v>1.762212378424721</v>
       </c>
       <c r="C10">
-        <v>0.1720944533493451</v>
+        <v>0.1094671607678848</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1158076001301076</v>
+        <v>0.08967759441911127</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.4507698776025109</v>
+        <v>0.1808751188046145</v>
       </c>
       <c r="H10">
-        <v>0.6194280066551343</v>
+        <v>0.2002497982428437</v>
       </c>
       <c r="I10">
-        <v>0.6089474072493193</v>
+        <v>0.197669816054832</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4647545103129005</v>
+        <v>1.462465758424941</v>
       </c>
       <c r="L10">
-        <v>0.2252665297110497</v>
+        <v>0.3781783266818479</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.0955640023585</v>
+        <v>0.7516814101699509</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6950972629402656</v>
+        <v>1.888234906257651</v>
       </c>
       <c r="C11">
-        <v>0.1720340518237933</v>
+        <v>0.109967921407069</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1164001207789731</v>
+        <v>0.09399517969904636</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.4466780286532313</v>
+        <v>0.1789142350778974</v>
       </c>
       <c r="H11">
-        <v>0.6151507795609703</v>
+        <v>0.1951678078883177</v>
       </c>
       <c r="I11">
-        <v>0.6033488374621072</v>
+        <v>0.1904087412786346</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4970261652282488</v>
+        <v>1.562996231954827</v>
       </c>
       <c r="L11">
-        <v>0.232027666177288</v>
+        <v>0.4045455026903682</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.078075828339934</v>
+        <v>0.7371136867877794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.709847864384642</v>
+        <v>1.936011079005254</v>
       </c>
       <c r="C12">
-        <v>0.1720165880161204</v>
+        <v>0.1101676253979065</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1166339055421837</v>
+        <v>0.09565350740534484</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.4451812030651467</v>
+        <v>0.1783218712449752</v>
       </c>
       <c r="H12">
-        <v>0.6135725216414158</v>
+        <v>0.1933299104058079</v>
       </c>
       <c r="I12">
-        <v>0.601282118639805</v>
+        <v>0.1877857282320452</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5092294488666482</v>
+        <v>1.601090463520705</v>
       </c>
       <c r="L12">
-        <v>0.2346018378991346</v>
+        <v>0.4145836568706471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.071650785590407</v>
+        <v>0.7320957384544755</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7066713719980271</v>
+        <v>1.92571901698733</v>
       </c>
       <c r="C13">
-        <v>0.1720201092108837</v>
+        <v>0.1101241639093118</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1165831377173987</v>
+        <v>0.09529529233687484</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.445501227189304</v>
+        <v>0.1784426114849254</v>
       </c>
       <c r="H13">
-        <v>0.6139105851347324</v>
+        <v>0.193721817446928</v>
       </c>
       <c r="I13">
-        <v>0.6017248506972823</v>
+        <v>0.1883449023597112</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.506602034888175</v>
+        <v>1.592884909858782</v>
       </c>
       <c r="L13">
-        <v>0.2340468289138187</v>
+        <v>0.4124192930920003</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.073025753439651</v>
+        <v>0.7331537962382413</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6963109436856882</v>
+        <v>1.892164323673114</v>
       </c>
       <c r="C14">
-        <v>0.1720325068844843</v>
+        <v>0.1099841479677579</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1164191659521414</v>
+        <v>0.09413113400389861</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.4465538277781249</v>
+        <v>0.1788624349393331</v>
       </c>
       <c r="H14">
-        <v>0.6150201050002622</v>
+        <v>0.1950148441032127</v>
       </c>
       <c r="I14">
-        <v>0.6031777380725192</v>
+        <v>0.190190368393484</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4980304877467461</v>
+        <v>1.566129704123455</v>
       </c>
       <c r="L14">
-        <v>0.2322391674904765</v>
+        <v>0.4053702439030928</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.077543279987651</v>
+        <v>0.7366906955128911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6899639805436948</v>
+        <v>1.871618528706222</v>
       </c>
       <c r="C15">
-        <v>0.1720408040751238</v>
+        <v>0.1098997029284519</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1163199531932122</v>
+        <v>0.09342114261192336</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.4472054380287105</v>
+        <v>0.1791394370983426</v>
       </c>
       <c r="H15">
-        <v>0.6157051135654399</v>
+        <v>0.1958182567860476</v>
       </c>
       <c r="I15">
-        <v>0.6040746208402314</v>
+        <v>0.191337456998296</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4927778925304267</v>
+        <v>1.549744958724716</v>
       </c>
       <c r="L15">
-        <v>0.2311337258453392</v>
+        <v>0.401059627422498</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.080336101555147</v>
+        <v>0.7389229521437812</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.653579006627524</v>
+        <v>1.75398342297882</v>
       </c>
       <c r="C16">
-        <v>0.1720991597388348</v>
+        <v>0.1094358332302647</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1157701957512636</v>
+        <v>0.08939861034605912</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.4510446543457363</v>
+        <v>0.1810237550171863</v>
       </c>
       <c r="H16">
-        <v>0.6197133326168327</v>
+        <v>0.2005937991443858</v>
       </c>
       <c r="I16">
-        <v>0.6093207488005614</v>
+        <v>0.1981616953243552</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4626431046441439</v>
+        <v>1.455898943220404</v>
       </c>
       <c r="L16">
-        <v>0.2248266224550264</v>
+        <v>0.3764623524292574</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.09673450185953</v>
+        <v>0.7527016075988229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6312471093685303</v>
+        <v>1.681901580561487</v>
       </c>
       <c r="C17">
-        <v>0.1721446344801265</v>
+        <v>0.1091689831488125</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1154497261017369</v>
+        <v>0.0869708031440446</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.4534935920048397</v>
+        <v>0.1824369207785139</v>
       </c>
       <c r="H17">
-        <v>0.622246063447264</v>
+        <v>0.2036731076695375</v>
       </c>
       <c r="I17">
-        <v>0.6126340401910113</v>
+        <v>0.2025665185651775</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4441264267430256</v>
+        <v>1.398363491811978</v>
       </c>
       <c r="L17">
-        <v>0.2209822743866283</v>
+        <v>0.3614621091353598</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.107145697555737</v>
+        <v>0.7620111111126988</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6183987025596878</v>
+        <v>1.640468909591505</v>
       </c>
       <c r="C18">
-        <v>0.1721743585268172</v>
+        <v>0.1090219428701076</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1152715786915124</v>
+        <v>0.08558855107914454</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4549365593706298</v>
+        <v>0.1833412456601593</v>
       </c>
       <c r="H18">
-        <v>0.6237299563308056</v>
+        <v>0.205497938742397</v>
       </c>
       <c r="I18">
-        <v>0.6145746438616353</v>
+        <v>0.20517822604155</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4334653644099546</v>
+        <v>1.365281131749981</v>
       </c>
       <c r="L18">
-        <v>0.2187802835227757</v>
+        <v>0.352865504230266</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.113262987557079</v>
+        <v>0.7676714168635073</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6140478487541543</v>
+        <v>1.626444789481013</v>
       </c>
       <c r="C19">
-        <v>0.1721850366035724</v>
+        <v>0.1089732582728473</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1152123229600086</v>
+        <v>0.08512292957510326</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.4554310290386496</v>
+        <v>0.1836628717954483</v>
       </c>
       <c r="H19">
-        <v>0.6242370375891113</v>
+        <v>0.2061248957500794</v>
       </c>
       <c r="I19">
-        <v>0.615237689495391</v>
+        <v>0.2060757375372582</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4298538879450007</v>
+        <v>1.354081565788732</v>
       </c>
       <c r="L19">
-        <v>0.2180363073074716</v>
+        <v>0.3499600307937669</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.115356354935116</v>
+        <v>0.7696395603518198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6336247669457578</v>
+        <v>1.689571948221072</v>
       </c>
       <c r="C20">
-        <v>0.1721394246053407</v>
+        <v>0.1091967212996607</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.115483201407045</v>
+        <v>0.08722777092627609</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.4532293370794136</v>
+        <v>0.1822769491854856</v>
       </c>
       <c r="H20">
-        <v>0.621973641868621</v>
+        <v>0.2033397238312205</v>
       </c>
       <c r="I20">
-        <v>0.6122777238141222</v>
+        <v>0.202089481107496</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4460986779105838</v>
+        <v>1.404487090680618</v>
       </c>
       <c r="L20">
-        <v>0.2213905630208046</v>
+        <v>0.3630556499843038</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.10602405093104</v>
+        <v>0.7609882545732773</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6993542422610801</v>
+        <v>1.902018580938716</v>
       </c>
       <c r="C21">
-        <v>0.1720287188980834</v>
+        <v>0.1100249988197106</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1164670732590807</v>
+        <v>0.09447242881210371</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.4462432232579232</v>
+        <v>0.178734968602221</v>
       </c>
       <c r="H21">
-        <v>0.614693087708801</v>
+        <v>0.1946326681232051</v>
       </c>
       <c r="I21">
-        <v>0.6027495419544735</v>
+        <v>0.1896448204487022</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5005486344408325</v>
+        <v>1.573987592017431</v>
       </c>
       <c r="L21">
-        <v>0.232769745924486</v>
+        <v>0.4074392246238716</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.076211015477469</v>
+        <v>0.7356380554511617</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7422727410747711</v>
+        <v>2.041186667725981</v>
       </c>
       <c r="C22">
-        <v>0.171987875953441</v>
+        <v>0.1106251686850328</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1171649270205286</v>
+        <v>0.09934413702640654</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.4419844340964403</v>
+        <v>0.1773002402582549</v>
       </c>
       <c r="H22">
-        <v>0.6101763332122161</v>
+        <v>0.1894486223711027</v>
       </c>
       <c r="I22">
-        <v>0.5968332365663969</v>
+        <v>0.18225273485616</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5360336778390717</v>
+        <v>1.684919203529944</v>
       </c>
       <c r="L22">
-        <v>0.2402875188850686</v>
+        <v>0.436760900125563</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.057876859764264</v>
+        <v>0.7219906032155592</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7193702674868518</v>
+        <v>1.966876422293353</v>
       </c>
       <c r="C23">
-        <v>0.1720068042127281</v>
+        <v>0.1102993896210691</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1167874605303965</v>
+        <v>0.09673094576827879</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.4442293028961046</v>
+        <v>0.1779821743283563</v>
       </c>
       <c r="H23">
-        <v>0.6125649172593839</v>
+        <v>0.1921676756628017</v>
       </c>
       <c r="I23">
-        <v>0.5999624192551938</v>
+        <v>0.1861279484182425</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5171041558074876</v>
+        <v>1.625695876083171</v>
       </c>
       <c r="L23">
-        <v>0.2362677905081938</v>
+        <v>0.4210807323038921</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.067556823005006</v>
+        <v>0.7289973685634266</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6325498574775565</v>
+        <v>1.686104150537233</v>
       </c>
       <c r="C24">
-        <v>0.1721417688347415</v>
+        <v>0.1091841610393232</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1154680482349804</v>
+        <v>0.08711155377717006</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.4533486975910108</v>
+        <v>0.1823489868755388</v>
       </c>
       <c r="H24">
-        <v>0.6220967170923259</v>
+        <v>0.2034902772312179</v>
       </c>
       <c r="I24">
-        <v>0.6124387030982934</v>
+        <v>0.2023049031814566</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4452070716206151</v>
+        <v>1.401718626176176</v>
       </c>
       <c r="L24">
-        <v>0.2212059502524255</v>
+        <v>0.3623351257394631</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.106530736979352</v>
+        <v>0.7614497303526946</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5387625360448851</v>
+        <v>1.384231953927326</v>
       </c>
       <c r="C25">
-        <v>0.1724239267075944</v>
+        <v>0.1082268595203146</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1142811506957671</v>
+        <v>0.07727111766914518</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.464500342150636</v>
+        <v>0.1905241076560742</v>
       </c>
       <c r="H25">
-        <v>0.6334157440966806</v>
+        <v>0.217741735807941</v>
       </c>
       <c r="I25">
-        <v>0.6272300319281197</v>
+        <v>0.2227195390349674</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3672460074113815</v>
+        <v>1.160494326301887</v>
       </c>
       <c r="L25">
-        <v>0.2053106109695051</v>
+        <v>0.3001396634125939</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.153503392370155</v>
+        <v>0.8080410387518668</v>
       </c>
     </row>
   </sheetData>
